--- a/public/files/templates/Lista de alumnos - Template.xlsx
+++ b/public/files/templates/Lista de alumnos - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Malen\Desktop\Proyectos Web\fevb\public\files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BB0689-3CDC-453D-974F-01516BC6549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4478145-0A76-49DF-A555-69DCB044D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B7A2EBE9-6D51-44D0-B42D-47791B7EAAF3}"/>
   </bookViews>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C87641-05A9-4833-AAC3-836E41F10752}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
